--- a/Dragonfall/gameData/shared/ProductionTechs.xlsx
+++ b/Dragonfall/gameData/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="2760" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,7 +598,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="282">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -724,6 +736,12 @@
     <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -854,6 +872,12 @@
     <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1306,7 +1330,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1353,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1373,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1393,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1413,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1433,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1453,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1473,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1493,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1513,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1533,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -1553,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -1573,7 +1597,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -1593,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -1613,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -1633,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1653,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -1673,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -1693,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/ProductionTechs.xlsx
+++ b/Dragonfall/gameData/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,7 +600,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="284">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -742,6 +744,7 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -878,6 +881,7 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1330,7 +1334,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1597,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/ProductionTechs.xlsx
+++ b/Dragonfall/gameData/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,7 +614,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="298">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -745,6 +759,13 @@
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -882,6 +903,13 @@
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1334,7 +1362,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1400,8 +1428,8 @@
       <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F3" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1420,8 +1448,8 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F4" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1460,8 +1488,8 @@
       <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F6" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1480,8 +1508,8 @@
       <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F7" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1660,8 +1688,8 @@
       <c r="E16" s="1">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F16" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1720,8 +1748,8 @@
       <c r="E19" s="1">
         <v>32</v>
       </c>
-      <c r="F19" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F19" s="1">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
